--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrSimpleQuantityUcum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,9 +335,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Quantity.value</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Not allowed to be used in this context</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
   </si>
   <si>
@@ -438,17 +432,14 @@
     <t>UCUM requiered for the identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>UCUM requiered.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1263,7 +1254,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>102</v>
@@ -1272,15 +1263,15 @@
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1300,22 +1291,22 @@
         <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>20</v>
@@ -1364,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1373,24 +1364,24 @@
         <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1407,59 +1398,57 @@
         <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" s="2"/>
+      <c r="O6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="P6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="O6" t="s" s="2">
+      <c r="R6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="P6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="R6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
       </c>
@@ -1476,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -1485,24 +1474,24 @@
         <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1522,22 +1511,20 @@
         <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>20</v>
@@ -1586,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1595,24 +1582,24 @@
         <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1626,35 +1613,33 @@
         <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>20</v>
@@ -1696,7 +1681,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1705,24 +1690,24 @@
         <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1742,22 +1727,22 @@
         <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -1806,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1815,16 +1800,16 @@
         <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
